--- a/data/table_from_will.xlsx
+++ b/data/table_from_will.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="25440" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generators" sheetId="1" r:id="rId1"/>
     <sheet name="Generators - Update" sheetId="2" r:id="rId2"/>
+    <sheet name="Generators - Update with years" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Generators!$A$1:$BB$122</definedName>
@@ -5123,8 +5124,2925 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Marte</author>
+    <author>W. Zappa</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FLOW_ACC_M3/s
+160413 NewDavid_data_within_eurodata.xlsx
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Exact location unclear, but it is located in the Our river (wikipedia)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Part of the plant is owned by Serbia, this part is not accounted for here
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+taken together because they lay directly next to each other</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Actually 2 plants, Sysima and Langsima</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Also contains lake Rundavatn (Olbogavatnet in Google), but this is much smaller and not in GRAND</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+taken together because they lay directly next to each other
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This could be a special one, several rivers/dams in cascade
+Messaure, Ligga, Harsranget, Porjus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Known as Sira-Kvina in Stadkraft list of plants in PDF, but Tonstad on website</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+names of the two dams withholding the reservoir, reservoir name unknown</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know exactly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://no.wikipedia.org/wiki/Malta-Reisseck_vannkraftverk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Volume 1.3 Mm3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I35" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I36" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WZ added</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I37" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I41" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I43" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Volume withhold could not be found, pure run of river without storage is assumed
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I47" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I51" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I52" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I53" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+total = 2.3 MCM, active = 2.0 MCM (wikipedia)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I55" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Volume withhold could not be found, pure run of river without storage is assumed
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sum active volumes all reservoirs (wikipedia)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I57" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WZ added</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I58" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WZ added</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I59" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I60" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B62" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B63" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I64" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L64" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+maybe total, not active? (wikipedia). GEO says 4.8 MCM total.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I65" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I68" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I69" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+also: "Lake Hintersand" according to wikipedia, but coords could not be found (capacity 0.11 MCM, so small compared to Limmern). Left out here. https://en.wikipedia.org/wiki/Linth%E2%80%93Limmern_Power_Stations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I73" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WZ added</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B74" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B75" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I75" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I77" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B79" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I80" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N80" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WZ added</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F81" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+coordinates of Kaunertal (village) - exact location of power plant not found</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+partly supplied by melting water from glaciers via La Borgne de Ferpècle and La Borgne d'Arolla</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B85" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I85" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+total volume (wikipedia)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I86" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B88" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H92" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I92" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I93" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N93" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database,
+small balancing reservoir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I94" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L94" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estimation! Area 3,27 km2 (wikipedia (italian)), 10 m water difference allowed (assumption)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I95" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L95" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estimation! Could not be found. Estimated very small: no significant broader part in canal can be seen in google.maps., except for navigation lock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I97" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B100" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C100" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Part of the plant is owned by Serbia, this part is not accounted for here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B101" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I101" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B102" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H102" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+small balancing reservoir? not found. Treated as RoR without reservoir storage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I102" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L102" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Volume withhold could not be found, pure run of river without storage is assumed
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B106" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I111" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WZ change from 3334/3312 based on ArcGIS and viewing map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B112" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H112" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I112" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L112" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+=deltaH*Area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L113" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+=deltaH*Area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L114" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+=150*94.59/1000
+=deltaH*Area km2/1000 
+But… 150 is estimated! Real value can deviate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I115" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marte:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+=deltaH*Area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I116" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I117" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I118" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B119" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Don't know yet, need LT data from Edwin. Assuming STO for now.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I119" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I120" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WZ added</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I121" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>W. Zappa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Grand Database</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="807">
   <si>
     <t>Power Station Name (second name)</t>
   </si>
@@ -7536,6 +10454,15 @@
   </si>
   <si>
     <t>Angerman</t>
+  </si>
+  <si>
+    <t>starting_year</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Reisseck II is still under construction. https://en.wikipedia.org/wiki/K%C3%B6lnbrein_Dam</t>
   </si>
 </sst>
 </file>
@@ -7552,7 +10479,7 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7681,8 +10608,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7731,6 +10666,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7749,7 +10690,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8023,6 +10964,15 @@
     </xf>
     <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8960,8 +11910,8 @@
   </sheetPr>
   <dimension ref="A1:AY279"/>
   <sheetViews>
-    <sheetView topLeftCell="J10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -20766,8 +23716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25756,4 +28706,5464 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId14"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="94" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="93">
+        <f>VLOOKUP(A2,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1988</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F2" s="15">
+        <v>45.145277999999998</v>
+      </c>
+      <c r="G2" s="15">
+        <v>6.0508329999999999</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="11">
+        <v>3412</v>
+      </c>
+      <c r="J2" s="15">
+        <v>45.210816999999999</v>
+      </c>
+      <c r="K2" s="18">
+        <v>6.1326960000000001</v>
+      </c>
+      <c r="L2" s="19">
+        <v>132</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="11">
+        <v>3416</v>
+      </c>
+      <c r="O2" s="18">
+        <v>45.129731999999997</v>
+      </c>
+      <c r="P2" s="18">
+        <v>6.0435509999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="93">
+        <f>VLOOKUP(A3,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1983</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>779</v>
+      </c>
+      <c r="F3" s="15">
+        <v>53.118611000000001</v>
+      </c>
+      <c r="G3" s="15">
+        <v>-4.1138890000000004</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="79"/>
+      <c r="J3" s="15">
+        <v>53.136882</v>
+      </c>
+      <c r="K3" s="18">
+        <v>-4.0700580000000004</v>
+      </c>
+      <c r="L3" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="18">
+        <v>53.117128999999998</v>
+      </c>
+      <c r="P3" s="18">
+        <v>-4.1072829999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="93">
+        <f>VLOOKUP(A4,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1976</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="F4" s="15">
+        <v>49.952221999999999</v>
+      </c>
+      <c r="G4" s="15">
+        <v>6.1772220000000004</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="15">
+        <v>49.945380999999998</v>
+      </c>
+      <c r="K4" s="18">
+        <v>6.175834</v>
+      </c>
+      <c r="L4" s="19">
+        <v>10.8</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="18">
+        <v>49.952714999999998</v>
+      </c>
+      <c r="P4" s="18">
+        <v>6.1795489999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="93">
+        <f>VLOOKUP(A5,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1998</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F5" s="15">
+        <v>46.185296999999998</v>
+      </c>
+      <c r="G5" s="15">
+        <v>7.2495609999999999</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3371</v>
+      </c>
+      <c r="J5" s="15">
+        <v>46.080326999999997</v>
+      </c>
+      <c r="K5" s="18">
+        <v>7.4032600000000004</v>
+      </c>
+      <c r="L5" s="19">
+        <v>400</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="93">
+        <f>VLOOKUP(A6,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1963</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F6" s="15">
+        <v>41.211669999999998</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-6.6855599999999997</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2735</v>
+      </c>
+      <c r="J6" s="15">
+        <v>41.214582999999998</v>
+      </c>
+      <c r="K6" s="18">
+        <v>-6.6837499999999999</v>
+      </c>
+      <c r="L6" s="19">
+        <v>56.6</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="11">
+        <v>6</v>
+      </c>
+      <c r="D7" s="93">
+        <f>VLOOKUP(A7,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1981</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F7" s="15">
+        <v>59.528779999999998</v>
+      </c>
+      <c r="G7" s="15">
+        <v>6.6542000000000003</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="11">
+        <v>3162</v>
+      </c>
+      <c r="J7" s="15">
+        <v>59.303750000000001</v>
+      </c>
+      <c r="K7" s="18">
+        <v>6.9420830000000002</v>
+      </c>
+      <c r="L7" s="19">
+        <v>2325</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11">
+        <v>7</v>
+      </c>
+      <c r="D8" s="93">
+        <f>VLOOKUP(A8,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1982</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F8" s="15">
+        <v>44.224722</v>
+      </c>
+      <c r="G8" s="15">
+        <v>7.3861109999999996</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="79"/>
+      <c r="J8" s="15">
+        <v>44.166283999999997</v>
+      </c>
+      <c r="K8" s="18">
+        <v>7.3317740000000002</v>
+      </c>
+      <c r="L8" s="19">
+        <v>27.3</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="18">
+        <v>44.222800999999997</v>
+      </c>
+      <c r="P8" s="18">
+        <v>7.3893139999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11">
+        <v>8</v>
+      </c>
+      <c r="D9" s="93">
+        <f>VLOOKUP(A9,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1972</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="F9" s="15">
+        <v>44.673276600000001</v>
+      </c>
+      <c r="G9" s="15">
+        <v>22.532036300000001</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="11">
+        <v>3880</v>
+      </c>
+      <c r="J9" s="15">
+        <v>44.671871000000003</v>
+      </c>
+      <c r="K9" s="18">
+        <v>22.527781000000001</v>
+      </c>
+      <c r="L9" s="19">
+        <v>2550</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11">
+        <v>9</v>
+      </c>
+      <c r="D10" s="93">
+        <f>VLOOKUP(A10,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1979</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="F10" s="15">
+        <v>50.386713999999998</v>
+      </c>
+      <c r="G10" s="15">
+        <v>5.8572579999999999</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="79"/>
+      <c r="J10" s="15">
+        <v>50.383842000000001</v>
+      </c>
+      <c r="K10" s="18">
+        <v>5.844163</v>
+      </c>
+      <c r="L10" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="18">
+        <v>50.389707999999999</v>
+      </c>
+      <c r="P10" s="18">
+        <v>5.8612000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="93">
+        <f>Generators!Z11</f>
+        <v>1980</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F11" s="15">
+        <v>60.499443999999997</v>
+      </c>
+      <c r="G11" s="15">
+        <v>7.1419439999999996</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3111</v>
+      </c>
+      <c r="J11" s="15">
+        <v>60.552734999999998</v>
+      </c>
+      <c r="K11" s="18">
+        <v>7.126417</v>
+      </c>
+      <c r="L11" s="19">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="24">
+        <v>10</v>
+      </c>
+      <c r="D12" s="93">
+        <f>D11</f>
+        <v>1980</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="24">
+        <v>3112</v>
+      </c>
+      <c r="J12" s="27">
+        <v>60.522041000000002</v>
+      </c>
+      <c r="K12" s="30">
+        <v>7.2613979999999998</v>
+      </c>
+      <c r="L12" s="31">
+        <v>27.6</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="24">
+        <v>10</v>
+      </c>
+      <c r="D13" s="93">
+        <f>D12</f>
+        <v>1980</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="24">
+        <v>3116</v>
+      </c>
+      <c r="J13" s="27">
+        <v>60.423110999999999</v>
+      </c>
+      <c r="K13" s="30">
+        <v>7.413678</v>
+      </c>
+      <c r="L13" s="31">
+        <v>427</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11">
+        <v>11</v>
+      </c>
+      <c r="D14" s="93">
+        <f>VLOOKUP(A14,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="F14" s="15">
+        <v>50.508083999999997</v>
+      </c>
+      <c r="G14" s="15">
+        <v>11.004471000000001</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="79"/>
+      <c r="J14" s="15">
+        <v>50.509453000000001</v>
+      </c>
+      <c r="K14" s="18">
+        <v>11.031798</v>
+      </c>
+      <c r="L14" s="19">
+        <v>12</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="18">
+        <v>50.498187000000001</v>
+      </c>
+      <c r="P14" s="18">
+        <v>11.007353999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11">
+        <v>12</v>
+      </c>
+      <c r="D15" s="93">
+        <f>VLOOKUP(A15,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1979</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="F15" s="15">
+        <v>50.517527000000001</v>
+      </c>
+      <c r="G15" s="15">
+        <v>12.880644</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" s="79"/>
+      <c r="J15" s="15">
+        <v>50.506830999999998</v>
+      </c>
+      <c r="K15" s="18">
+        <v>12.868891</v>
+      </c>
+      <c r="L15" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="18">
+        <v>50.521552999999997</v>
+      </c>
+      <c r="P15" s="18">
+        <v>12.882842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11">
+        <v>13</v>
+      </c>
+      <c r="D16" s="93">
+        <f>VLOOKUP(A16,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1973</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F16" s="15">
+        <v>46.069443999999997</v>
+      </c>
+      <c r="G16" s="15">
+        <v>8.7319440000000004</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="79"/>
+      <c r="J16" s="15">
+        <v>46.078660999999997</v>
+      </c>
+      <c r="K16" s="18">
+        <v>8.7553889999999992</v>
+      </c>
+      <c r="L16" s="19">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N16" s="11">
+        <v>3395</v>
+      </c>
+      <c r="O16" s="18">
+        <v>45.985128000000003</v>
+      </c>
+      <c r="P16" s="18">
+        <v>8.6799269999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11">
+        <v>14</v>
+      </c>
+      <c r="D17" s="93">
+        <f>VLOOKUP(A17,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1984</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F17" s="15">
+        <v>46.170833000000002</v>
+      </c>
+      <c r="G17" s="15">
+        <v>10.347778</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="79"/>
+      <c r="J17" s="15">
+        <v>46.19361</v>
+      </c>
+      <c r="K17" s="18">
+        <v>10.471518</v>
+      </c>
+      <c r="L17" s="19">
+        <v>17.04</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="18">
+        <v>46.172052000000001</v>
+      </c>
+      <c r="P17" s="18">
+        <v>10.336399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11">
+        <v>15</v>
+      </c>
+      <c r="D18" s="93">
+        <f>VLOOKUP(A18,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1991</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F18" s="15">
+        <v>41.381388999999999</v>
+      </c>
+      <c r="G18" s="15">
+        <v>14.090278</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I18" s="79"/>
+      <c r="J18" s="15">
+        <v>41.396042999999999</v>
+      </c>
+      <c r="K18" s="18">
+        <v>14.049766</v>
+      </c>
+      <c r="L18" s="19">
+        <v>6</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="18">
+        <v>41.377395</v>
+      </c>
+      <c r="P18" s="18">
+        <v>14.09714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11">
+        <v>16</v>
+      </c>
+      <c r="D19" s="93">
+        <f>VLOOKUP(A19,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1976</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="F19" s="15">
+        <v>47.652566</v>
+      </c>
+      <c r="G19" s="15">
+        <v>7.9257770000000001</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="79"/>
+      <c r="J19" s="15">
+        <v>47.660210999999997</v>
+      </c>
+      <c r="K19" s="18">
+        <v>7.9609389999999998</v>
+      </c>
+      <c r="L19" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="18">
+        <v>47.646743999999998</v>
+      </c>
+      <c r="P19" s="18">
+        <v>7.9197259999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="11">
+        <v>17</v>
+      </c>
+      <c r="D20" s="93">
+        <f>VLOOKUP(A20,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1951</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="F20" s="15">
+        <v>66.885000000000005</v>
+      </c>
+      <c r="G20" s="15">
+        <v>19.814800000000002</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" s="82">
+        <v>3697</v>
+      </c>
+      <c r="J20" s="15">
+        <v>66.886528999999996</v>
+      </c>
+      <c r="K20" s="18">
+        <v>19.817778000000001</v>
+      </c>
+      <c r="L20" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="11">
+        <v>18</v>
+      </c>
+      <c r="D21" s="93">
+        <f>Generators!Z22</f>
+        <v>1968</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="F21" s="15">
+        <v>58.659166999999997</v>
+      </c>
+      <c r="G21" s="15">
+        <v>6.7169439999999998</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" s="79"/>
+      <c r="J21" s="15">
+        <v>58.693491000000002</v>
+      </c>
+      <c r="K21" s="18">
+        <v>8.0097649999999998</v>
+      </c>
+      <c r="L21" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="11">
+        <v>19</v>
+      </c>
+      <c r="D22" s="93">
+        <f>VLOOKUP(A22,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1969</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F22" s="15">
+        <v>39.729999999999997</v>
+      </c>
+      <c r="G22" s="15">
+        <v>-6.8847199999999997</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="11">
+        <v>2800</v>
+      </c>
+      <c r="J22" s="15">
+        <v>39.732917</v>
+      </c>
+      <c r="K22" s="18">
+        <v>-6.8854170000000003</v>
+      </c>
+      <c r="L22" s="19">
+        <v>3162</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="11">
+        <v>20</v>
+      </c>
+      <c r="D23" s="93">
+        <f>VLOOKUP(A23,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1982</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F23" s="15">
+        <v>44.7258</v>
+      </c>
+      <c r="G23" s="15">
+        <v>2.6488670000000001</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I23" s="79"/>
+      <c r="J23" s="15">
+        <v>44.725065000000001</v>
+      </c>
+      <c r="K23" s="18">
+        <v>2.6501169999999998</v>
+      </c>
+      <c r="L23" s="19">
+        <v>30</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="N23" s="11">
+        <v>3429</v>
+      </c>
+      <c r="O23" s="18">
+        <v>44.696368</v>
+      </c>
+      <c r="P23" s="18">
+        <v>2.5857779999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="11">
+        <v>21</v>
+      </c>
+      <c r="D24" s="93">
+        <f>VLOOKUP(A24,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1992</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="F24" s="15">
+        <v>54.799076999999997</v>
+      </c>
+      <c r="G24" s="15">
+        <v>24.247084000000001</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" s="79"/>
+      <c r="J24" s="15">
+        <v>54.782794000000003</v>
+      </c>
+      <c r="K24" s="18">
+        <v>24.270337999999999</v>
+      </c>
+      <c r="L24" s="19">
+        <v>41</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="N24" s="11">
+        <v>3739</v>
+      </c>
+      <c r="O24" s="18">
+        <v>54.873925999999997</v>
+      </c>
+      <c r="P24" s="18">
+        <v>24.000015999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="11">
+        <v>22</v>
+      </c>
+      <c r="D25" s="93">
+        <f>VLOOKUP(A25,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1965</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="F25" s="15">
+        <v>56.582202700000003</v>
+      </c>
+      <c r="G25" s="15">
+        <v>25.237312299999999</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="11">
+        <v>3737</v>
+      </c>
+      <c r="J25" s="15">
+        <v>56.582202700000003</v>
+      </c>
+      <c r="K25" s="18">
+        <v>25.237312299999999</v>
+      </c>
+      <c r="L25" s="19">
+        <v>500</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11">
+        <v>23</v>
+      </c>
+      <c r="D26" s="93">
+        <f>VLOOKUP(A26,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="F26" s="15">
+        <v>42.158949999999997</v>
+      </c>
+      <c r="G26" s="15">
+        <v>23.870844999999999</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" s="11">
+        <v>3964</v>
+      </c>
+      <c r="J26" s="15">
+        <v>42.174582999999998</v>
+      </c>
+      <c r="K26" s="18">
+        <v>23.80875</v>
+      </c>
+      <c r="L26" s="19">
+        <v>141.16</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="18">
+        <v>42.158715999999998</v>
+      </c>
+      <c r="P26" s="18">
+        <v>23.870958000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11">
+        <v>24</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F27" s="15">
+        <v>39.260416999999997</v>
+      </c>
+      <c r="G27" s="15">
+        <v>-0.91958300000000004</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="11">
+        <v>2819</v>
+      </c>
+      <c r="J27" s="15">
+        <v>39.234811999999998</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-0.92837000000000003</v>
+      </c>
+      <c r="L27" s="19">
+        <v>20</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N27" s="11">
+        <v>2817</v>
+      </c>
+      <c r="O27" s="18">
+        <v>39.261273000000003</v>
+      </c>
+      <c r="P27" s="18">
+        <v>-0.91828500000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="11">
+        <v>25</v>
+      </c>
+      <c r="D28" s="93">
+        <f>VLOOKUP(A28,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1973</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F28" s="15">
+        <v>60.861060000000002</v>
+      </c>
+      <c r="G28" s="15">
+        <v>7.3044880000000001</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="I28" s="11">
+        <v>3104</v>
+      </c>
+      <c r="J28" s="15">
+        <v>60.817414999999997</v>
+      </c>
+      <c r="K28" s="18">
+        <v>7.2543680000000004</v>
+      </c>
+      <c r="L28" s="19">
+        <v>196</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="11">
+        <v>26</v>
+      </c>
+      <c r="D29" s="93">
+        <f>VLOOKUP(A29,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1977</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F29" s="15">
+        <v>41.270159999999997</v>
+      </c>
+      <c r="G29" s="15">
+        <v>-6.3208000000000002</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" s="11">
+        <v>2733</v>
+      </c>
+      <c r="J29" s="15">
+        <v>41.274583</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-6.3237500000000004</v>
+      </c>
+      <c r="L29" s="19">
+        <v>2648.6</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11">
+        <v>27</v>
+      </c>
+      <c r="D30" s="93">
+        <f>VLOOKUP(A30,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1986</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F30" s="15">
+        <v>45.201999999999998</v>
+      </c>
+      <c r="G30" s="15">
+        <v>6.5759999999999996</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I30" s="11">
+        <v>3413</v>
+      </c>
+      <c r="J30" s="15">
+        <v>45.180416999999998</v>
+      </c>
+      <c r="K30" s="18">
+        <v>6.5795830000000004</v>
+      </c>
+      <c r="L30" s="19">
+        <v>39.5</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="18">
+        <v>45.207796999999999</v>
+      </c>
+      <c r="P30" s="18">
+        <v>6.5662330000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="11">
+        <v>28</v>
+      </c>
+      <c r="D31" s="93">
+        <f>VLOOKUP(A31,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1983</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="F31" s="15">
+        <v>49.008789999999998</v>
+      </c>
+      <c r="G31" s="15">
+        <v>19.912237000000001</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="I31" s="79"/>
+      <c r="J31" s="15">
+        <v>49.021445999999997</v>
+      </c>
+      <c r="K31" s="18">
+        <v>19.909604000000002</v>
+      </c>
+      <c r="L31" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="18">
+        <v>49.012467999999998</v>
+      </c>
+      <c r="P31" s="18">
+        <v>19.931315000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="11">
+        <v>29</v>
+      </c>
+      <c r="D32" s="93">
+        <f>VLOOKUP(A32,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1979</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F32" s="15">
+        <v>47.079379000000003</v>
+      </c>
+      <c r="G32" s="15">
+        <v>13.339188</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="I32" s="11">
+        <v>3305</v>
+      </c>
+      <c r="J32" s="15">
+        <v>47.082917000000002</v>
+      </c>
+      <c r="K32" s="18">
+        <v>13.33375</v>
+      </c>
+      <c r="L32" s="19">
+        <v>205</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="18">
+        <v>47.067295999999999</v>
+      </c>
+      <c r="P32" s="18">
+        <v>13.351609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="11">
+        <v>30</v>
+      </c>
+      <c r="D33" s="93">
+        <f>VLOOKUP(A33,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1979</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>793</v>
+      </c>
+      <c r="F33" s="77">
+        <v>46.870327000000003</v>
+      </c>
+      <c r="G33" s="77">
+        <v>13.329065999999999</v>
+      </c>
+      <c r="H33" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="I33" s="79"/>
+      <c r="J33" s="83">
+        <v>47.067295999999999</v>
+      </c>
+      <c r="K33" s="84">
+        <v>13.351609</v>
+      </c>
+      <c r="L33" s="85">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M33" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="N33" s="73"/>
+      <c r="O33" s="86">
+        <v>46.868788000000002</v>
+      </c>
+      <c r="P33" s="86">
+        <v>13.328605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="72" t="s">
+        <v>768</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="11">
+        <v>31</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>793</v>
+      </c>
+      <c r="F34" s="78">
+        <v>46.870327000000003</v>
+      </c>
+      <c r="G34" s="78">
+        <v>13.329065999999999</v>
+      </c>
+      <c r="H34" s="73" t="s">
+        <v>800</v>
+      </c>
+      <c r="I34" s="79"/>
+      <c r="J34" s="84">
+        <v>46.917946000000001</v>
+      </c>
+      <c r="K34" s="87">
+        <v>13.375251</v>
+      </c>
+      <c r="L34" s="88">
+        <v>7.8</v>
+      </c>
+      <c r="M34" s="73" t="s">
+        <v>801</v>
+      </c>
+      <c r="N34" s="73"/>
+      <c r="O34" s="86">
+        <v>46.982748000000001</v>
+      </c>
+      <c r="P34" s="86">
+        <v>13.328867000000001</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="11">
+        <v>32</v>
+      </c>
+      <c r="D35" s="93">
+        <f>VLOOKUP(A35,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1976</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F35" s="15">
+        <v>49.925556</v>
+      </c>
+      <c r="G35" s="15">
+        <v>4.6133329999999999</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I35" s="79"/>
+      <c r="J35" s="15">
+        <v>49.917399000000003</v>
+      </c>
+      <c r="K35" s="18">
+        <v>4.6272080000000004</v>
+      </c>
+      <c r="L35" s="19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="N35" s="73"/>
+      <c r="O35" s="18">
+        <v>49.925015000000002</v>
+      </c>
+      <c r="P35" s="18">
+        <v>4.607558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="11">
+        <v>33</v>
+      </c>
+      <c r="D36" s="93">
+        <f>VLOOKUP(A36,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1995</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="F36" s="15">
+        <v>47.880088600000001</v>
+      </c>
+      <c r="G36" s="15">
+        <v>17.5385141</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="I36" s="89">
+        <v>3806</v>
+      </c>
+      <c r="J36" s="15">
+        <v>47.882354999999997</v>
+      </c>
+      <c r="K36" s="18">
+        <v>17.535067000000002</v>
+      </c>
+      <c r="L36" s="19">
+        <v>197</v>
+      </c>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="11">
+        <v>34</v>
+      </c>
+      <c r="D37" s="93">
+        <f>VLOOKUP(A37,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1983</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="F37" s="15">
+        <v>54.722271999999997</v>
+      </c>
+      <c r="G37" s="15">
+        <v>18.082356000000001</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="I37" s="79"/>
+      <c r="J37" s="15">
+        <v>54.712682000000001</v>
+      </c>
+      <c r="K37" s="18">
+        <v>18.056424</v>
+      </c>
+      <c r="L37" s="19">
+        <v>13</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="18">
+        <v>54.761884000000002</v>
+      </c>
+      <c r="P37" s="18">
+        <v>18.058195000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="11">
+        <v>35</v>
+      </c>
+      <c r="D38" s="93">
+        <f>VLOOKUP(A38,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1985</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F38" s="15">
+        <v>59.482770000000002</v>
+      </c>
+      <c r="G38" s="15">
+        <v>6.67265</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="11">
+        <v>3162</v>
+      </c>
+      <c r="J38" s="15">
+        <v>59.303750000000001</v>
+      </c>
+      <c r="K38" s="18">
+        <v>6.9420830000000002</v>
+      </c>
+      <c r="L38" s="19">
+        <v>2325</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="N38" s="11"/>
+      <c r="O38" s="18">
+        <v>59.496032999999997</v>
+      </c>
+      <c r="P38" s="18">
+        <v>6.5395159999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="11">
+        <v>36</v>
+      </c>
+      <c r="D39" s="93">
+        <f>VLOOKUP(A39,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1992</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="F39" s="15">
+        <v>41.872835000000002</v>
+      </c>
+      <c r="G39" s="15">
+        <v>8.2040749999999996</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="I39" s="11">
+        <v>2713</v>
+      </c>
+      <c r="J39" s="15">
+        <v>41.872563999999997</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-8.2023650000000004</v>
+      </c>
+      <c r="L39" s="19">
+        <v>390</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="N39" s="11">
+        <v>2714</v>
+      </c>
+      <c r="O39" s="18">
+        <v>41.812573</v>
+      </c>
+      <c r="P39" s="18">
+        <v>-8.3535959999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="11">
+        <v>37</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F40" s="15">
+        <v>39.260416999999997</v>
+      </c>
+      <c r="G40" s="15">
+        <v>-0.91958300000000004</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="I40" s="11">
+        <v>2819</v>
+      </c>
+      <c r="J40" s="15">
+        <v>39.234811999999998</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-0.92837000000000003</v>
+      </c>
+      <c r="L40" s="19">
+        <v>20</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N40" s="11">
+        <v>2817</v>
+      </c>
+      <c r="O40" s="18">
+        <v>39.261273000000003</v>
+      </c>
+      <c r="P40" s="18">
+        <v>-0.91828500000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="11">
+        <v>38</v>
+      </c>
+      <c r="D41" s="93">
+        <f>VLOOKUP(A41,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1996</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="F41" s="15">
+        <v>50.084297999999997</v>
+      </c>
+      <c r="G41" s="15">
+        <v>17.181028999999999</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="I41" s="79"/>
+      <c r="J41" s="15">
+        <v>50.075180000000003</v>
+      </c>
+      <c r="K41" s="18">
+        <v>17.159209000000001</v>
+      </c>
+      <c r="L41" s="19">
+        <v>2.72</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="N41" s="11"/>
+      <c r="O41" s="18">
+        <v>50.082633000000001</v>
+      </c>
+      <c r="P41" s="18">
+        <v>17.182297999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B42" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="11">
+        <v>39</v>
+      </c>
+      <c r="D42" s="93">
+        <f>VLOOKUP(A42,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1993</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F42" s="15">
+        <v>66.728333000000006</v>
+      </c>
+      <c r="G42" s="15">
+        <v>13.913611</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I42" s="11">
+        <v>3052</v>
+      </c>
+      <c r="J42" s="15">
+        <v>66.701481999999999</v>
+      </c>
+      <c r="K42" s="18">
+        <v>14.175053999999999</v>
+      </c>
+      <c r="L42" s="19">
+        <v>3468</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="11">
+        <v>40</v>
+      </c>
+      <c r="D43" s="93">
+        <f>VLOOKUP(A43,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1958</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="F43" s="15">
+        <v>63.518999999999998</v>
+      </c>
+      <c r="G43" s="15">
+        <v>20.36</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="I43" s="79"/>
+      <c r="J43" s="15">
+        <v>63.870435999999998</v>
+      </c>
+      <c r="K43" s="18">
+        <v>20.015263000000001</v>
+      </c>
+      <c r="L43" s="19">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="11">
+        <v>41</v>
+      </c>
+      <c r="D44" s="93">
+        <f>VLOOKUP(A44,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1956</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F44" s="15">
+        <v>47.196722000000001</v>
+      </c>
+      <c r="G44" s="15">
+        <v>12.720815999999999</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="I44" s="11">
+        <v>3295</v>
+      </c>
+      <c r="J44" s="15">
+        <v>47.197916999999997</v>
+      </c>
+      <c r="K44" s="18">
+        <v>11.02125</v>
+      </c>
+      <c r="L44" s="19">
+        <v>85.4</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="N44" s="11"/>
+      <c r="O44" s="18">
+        <v>47.189686999999999</v>
+      </c>
+      <c r="P44" s="18">
+        <v>12.718928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="11">
+        <v>42</v>
+      </c>
+      <c r="D45" s="93">
+        <f>VLOOKUP(A45,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1973</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F45" s="15">
+        <v>46.044199999999996</v>
+      </c>
+      <c r="G45" s="15">
+        <v>10.3521</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="I45" s="11">
+        <v>3377</v>
+      </c>
+      <c r="J45" s="15">
+        <v>46.046804999999999</v>
+      </c>
+      <c r="K45" s="18">
+        <v>10.430052</v>
+      </c>
+      <c r="L45" s="19">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="18">
+        <v>46.047947999999998</v>
+      </c>
+      <c r="P45" s="18">
+        <v>10.350704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="11">
+        <v>43</v>
+      </c>
+      <c r="D46" s="93">
+        <f>VLOOKUP(A46,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1961</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F46" s="15">
+        <v>45.685437</v>
+      </c>
+      <c r="G46" s="15">
+        <v>6.6224970000000001</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="I46" s="11">
+        <v>3394</v>
+      </c>
+      <c r="J46" s="15">
+        <v>45.686250000000001</v>
+      </c>
+      <c r="K46" s="18">
+        <v>6.6245830000000003</v>
+      </c>
+      <c r="L46" s="19">
+        <v>187</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="11">
+        <v>44</v>
+      </c>
+      <c r="D47" s="93">
+        <f>VLOOKUP(A47,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>2008</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F47" s="15">
+        <v>46.975805000000001</v>
+      </c>
+      <c r="G47" s="15">
+        <v>10.043101999999999</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="I47" s="79"/>
+      <c r="J47" s="15">
+        <v>46.970536000000003</v>
+      </c>
+      <c r="K47" s="18">
+        <v>10.125780000000001</v>
+      </c>
+      <c r="L47" s="19">
+        <v>42</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="N47" s="11"/>
+      <c r="O47" s="18">
+        <v>46.975220999999998</v>
+      </c>
+      <c r="P47" s="18">
+        <v>10.039701000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C48" s="11">
+        <v>45</v>
+      </c>
+      <c r="D48" s="93">
+        <f>VLOOKUP(A48,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1956</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F48" s="15">
+        <v>41.047618999999997</v>
+      </c>
+      <c r="G48" s="15">
+        <v>-6.8040250000000002</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="I48" s="11">
+        <v>2744</v>
+      </c>
+      <c r="J48" s="15">
+        <v>41.047424999999997</v>
+      </c>
+      <c r="K48" s="18">
+        <v>-6.8039610000000001</v>
+      </c>
+      <c r="L48" s="19">
+        <v>181.5</v>
+      </c>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="11">
+        <v>46</v>
+      </c>
+      <c r="D49" s="93">
+        <f>VLOOKUP(A49,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="F49" s="15">
+        <v>38.195562000000002</v>
+      </c>
+      <c r="G49" s="15">
+        <v>-7.4977080000000003</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I49" s="11">
+        <v>2857</v>
+      </c>
+      <c r="J49" s="15">
+        <v>38.195416999999999</v>
+      </c>
+      <c r="K49" s="18">
+        <v>-7.4954169999999998</v>
+      </c>
+      <c r="L49" s="19">
+        <v>3150</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="N49" s="11"/>
+      <c r="O49" s="18">
+        <v>38.110595000000004</v>
+      </c>
+      <c r="P49" s="18">
+        <v>-7.6291570000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="11">
+        <v>47</v>
+      </c>
+      <c r="D50" s="93">
+        <f>VLOOKUP(A50,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1973</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="F50" s="15">
+        <v>45.447004999999997</v>
+      </c>
+      <c r="G50" s="15">
+        <v>23.768191000000002</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="I50" s="11">
+        <v>3856</v>
+      </c>
+      <c r="J50" s="15">
+        <v>45.430556000000003</v>
+      </c>
+      <c r="K50" s="18">
+        <v>23.733332999999998</v>
+      </c>
+      <c r="L50" s="19">
+        <v>340</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="11">
+        <v>48</v>
+      </c>
+      <c r="D51" s="93">
+        <f>VLOOKUP(A51,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1981</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F51" s="15">
+        <v>47.269798000000002</v>
+      </c>
+      <c r="G51" s="15">
+        <v>10.967834</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="I51" s="79"/>
+      <c r="J51" s="15">
+        <v>47.212035</v>
+      </c>
+      <c r="K51" s="18">
+        <v>11.000964</v>
+      </c>
+      <c r="L51" s="19">
+        <v>3</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="11">
+        <v>49</v>
+      </c>
+      <c r="D52" s="93">
+        <f>VLOOKUP(A52,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F52" s="15">
+        <v>37.118299999999998</v>
+      </c>
+      <c r="G52" s="15">
+        <v>15.1394</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="I52" s="79"/>
+      <c r="J52" s="15">
+        <v>37.129075999999998</v>
+      </c>
+      <c r="K52" s="18">
+        <v>15.139324999999999</v>
+      </c>
+      <c r="L52" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="N52" s="11"/>
+      <c r="O52" s="18">
+        <v>37.111313000000003</v>
+      </c>
+      <c r="P52" s="18">
+        <v>15.142173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="11">
+        <v>50</v>
+      </c>
+      <c r="D53" s="93">
+        <f>VLOOKUP(A53,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1979</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="F53" s="15">
+        <v>49.780391000000002</v>
+      </c>
+      <c r="G53" s="15">
+        <v>19.211573000000001</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="I53" s="79"/>
+      <c r="J53" s="15">
+        <v>49.787309999999998</v>
+      </c>
+      <c r="K53" s="18">
+        <v>19.229977000000002</v>
+      </c>
+      <c r="L53" s="19">
+        <v>2</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="N53" s="11">
+        <v>3768</v>
+      </c>
+      <c r="O53" s="18">
+        <v>49.807045000000002</v>
+      </c>
+      <c r="P53" s="18">
+        <v>19.201388000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="11">
+        <v>51</v>
+      </c>
+      <c r="D54" s="93">
+        <f>VLOOKUP(A54,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1943</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F54" s="15">
+        <v>47.085109000000003</v>
+      </c>
+      <c r="G54" s="15">
+        <v>9.8812890000000007</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I54" s="79"/>
+      <c r="J54" s="15">
+        <v>47.076025000000001</v>
+      </c>
+      <c r="K54" s="18">
+        <v>9.8745429999999992</v>
+      </c>
+      <c r="L54" s="19">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="N54" s="11"/>
+      <c r="O54" s="18">
+        <v>47.085935999999997</v>
+      </c>
+      <c r="P54" s="18">
+        <v>9.8764800000000008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="11">
+        <v>52</v>
+      </c>
+      <c r="D55" s="93">
+        <f>VLOOKUP(A55,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1962</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="F55" s="15">
+        <v>43.458100000000002</v>
+      </c>
+      <c r="G55" s="15">
+        <v>16.7027</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I55" s="79"/>
+      <c r="J55" s="15">
+        <v>43.546056</v>
+      </c>
+      <c r="K55" s="18">
+        <v>16.736651999999999</v>
+      </c>
+      <c r="L55" s="19">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B56" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="11">
+        <v>53</v>
+      </c>
+      <c r="D56" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F56" s="15">
+        <v>66.302778000000004</v>
+      </c>
+      <c r="G56" s="15">
+        <v>14.260278</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="I56" s="11">
+        <v>3054</v>
+      </c>
+      <c r="J56" s="15">
+        <v>66.179582999999994</v>
+      </c>
+      <c r="K56" s="18">
+        <v>14.450417</v>
+      </c>
+      <c r="L56" s="19">
+        <v>1244.7</v>
+      </c>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="37">
+        <v>53</v>
+      </c>
+      <c r="D57" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="81" t="s">
+        <v>454</v>
+      </c>
+      <c r="I57" s="90">
+        <v>3053</v>
+      </c>
+      <c r="J57" s="40">
+        <v>66.236999999999995</v>
+      </c>
+      <c r="K57" s="43">
+        <v>14.932</v>
+      </c>
+      <c r="L57" s="44">
+        <v>706</v>
+      </c>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="37">
+        <v>53</v>
+      </c>
+      <c r="D58" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="I58" s="90">
+        <v>3055</v>
+      </c>
+      <c r="J58" s="40">
+        <v>66.06</v>
+      </c>
+      <c r="K58" s="43">
+        <v>14.46</v>
+      </c>
+      <c r="L58" s="44">
+        <v>314</v>
+      </c>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="37">
+        <v>53</v>
+      </c>
+      <c r="D59" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="81" t="s">
+        <v>458</v>
+      </c>
+      <c r="I59" s="79"/>
+      <c r="J59" s="40">
+        <v>66.069721999999999</v>
+      </c>
+      <c r="K59" s="43">
+        <v>14.253333</v>
+      </c>
+      <c r="L59" s="44">
+        <v>28</v>
+      </c>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="11">
+        <v>54</v>
+      </c>
+      <c r="D60" s="93">
+        <f>VLOOKUP(A60,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1974</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="F60" s="15">
+        <v>51.166548800000001</v>
+      </c>
+      <c r="G60" s="15">
+        <v>9.0465868</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="I60" s="79"/>
+      <c r="J60" s="15">
+        <v>51.158332999999999</v>
+      </c>
+      <c r="K60" s="18">
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="L60" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="N60" s="11">
+        <v>3212</v>
+      </c>
+      <c r="O60" s="18">
+        <v>51.182806999999997</v>
+      </c>
+      <c r="P60" s="18">
+        <v>9.0590779999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" s="11">
+        <v>55</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F61" s="15">
+        <v>39.665284</v>
+      </c>
+      <c r="G61" s="15">
+        <v>-7.5402310000000003</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="I61" s="11">
+        <v>2803</v>
+      </c>
+      <c r="J61" s="15">
+        <v>39.664855000000003</v>
+      </c>
+      <c r="K61" s="18">
+        <v>-7.5399630000000002</v>
+      </c>
+      <c r="L61" s="19">
+        <v>260</v>
+      </c>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="11">
+        <v>56</v>
+      </c>
+      <c r="D62" s="93">
+        <f>VLOOKUP(A62,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1915</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="F62" s="15">
+        <v>66.954280999999995</v>
+      </c>
+      <c r="G62" s="15">
+        <v>19.796075999999999</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="I62" s="11">
+        <v>3696</v>
+      </c>
+      <c r="J62" s="15">
+        <v>66.959011000000004</v>
+      </c>
+      <c r="K62" s="18">
+        <v>19.805440000000001</v>
+      </c>
+      <c r="L62" s="19">
+        <v>610</v>
+      </c>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B63" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="11">
+        <v>57</v>
+      </c>
+      <c r="D63" s="93">
+        <f>VLOOKUP(A63,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1963</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="F63" s="15">
+        <v>66.691102000000001</v>
+      </c>
+      <c r="G63" s="15">
+        <v>20.343575999999999</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="I63" s="11">
+        <v>3700</v>
+      </c>
+      <c r="J63" s="15">
+        <v>66.686993999999999</v>
+      </c>
+      <c r="K63" s="18">
+        <v>20.334741000000001</v>
+      </c>
+      <c r="L63" s="19">
+        <v>54</v>
+      </c>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="11">
+        <v>58</v>
+      </c>
+      <c r="D64" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F64" s="15">
+        <v>45.384999999999998</v>
+      </c>
+      <c r="G64" s="15">
+        <v>5.9989999999999997</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="I64" s="79"/>
+      <c r="J64" s="15">
+        <v>45.382336000000002</v>
+      </c>
+      <c r="K64" s="18">
+        <v>6.0593180000000002</v>
+      </c>
+      <c r="L64" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="N64" s="11"/>
+      <c r="O64" s="18">
+        <v>45.383141000000002</v>
+      </c>
+      <c r="P64" s="18">
+        <v>5.9879980000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>770</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="37">
+        <v>58</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="81" t="s">
+        <v>486</v>
+      </c>
+      <c r="I65" s="79"/>
+      <c r="J65" s="40">
+        <v>45.287565999999998</v>
+      </c>
+      <c r="K65" s="43">
+        <v>6.358784</v>
+      </c>
+      <c r="L65" s="44">
+        <v>1.7</v>
+      </c>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B66" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="11">
+        <v>59</v>
+      </c>
+      <c r="D66" s="93">
+        <f>VLOOKUP(A66,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1967</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="F66" s="15">
+        <v>66.499583000000001</v>
+      </c>
+      <c r="G66" s="15">
+        <v>20.354583000000002</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I66" s="11">
+        <v>3703</v>
+      </c>
+      <c r="J66" s="15">
+        <v>66.502426</v>
+      </c>
+      <c r="K66" s="18">
+        <v>20.374414999999999</v>
+      </c>
+      <c r="L66" s="19">
+        <v>68</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="11">
+        <v>60</v>
+      </c>
+      <c r="D67" s="93">
+        <f>VLOOKUP(A67,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1978</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="F67" s="15">
+        <v>49.124429999999997</v>
+      </c>
+      <c r="G67" s="15">
+        <v>16.124206999999998</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="I67" s="11">
+        <v>3786</v>
+      </c>
+      <c r="J67" s="15">
+        <v>49.128749999999997</v>
+      </c>
+      <c r="K67" s="18">
+        <v>16.117083000000001</v>
+      </c>
+      <c r="L67" s="19">
+        <v>127.3</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="N67" s="11">
+        <v>3788</v>
+      </c>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="11">
+        <v>61</v>
+      </c>
+      <c r="D68" s="93">
+        <f>VLOOKUP(A68,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1950</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="I68" s="79"/>
+      <c r="J68" s="15">
+        <v>42.507601999999999</v>
+      </c>
+      <c r="K68" s="18">
+        <v>13.405393</v>
+      </c>
+      <c r="L68" s="19">
+        <v>1.69</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="N68" s="11"/>
+      <c r="O68" s="18">
+        <v>42.560955</v>
+      </c>
+      <c r="P68" s="18">
+        <v>13.563338999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="11">
+        <v>62</v>
+      </c>
+      <c r="D69" s="93">
+        <f>VLOOKUP(A69,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1986</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F69" s="15">
+        <v>42.500363999999998</v>
+      </c>
+      <c r="G69" s="15">
+        <v>0.99148899999999995</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="I69" s="79"/>
+      <c r="J69" s="15">
+        <v>42.503464000000001</v>
+      </c>
+      <c r="K69" s="18">
+        <v>0.99068599999999996</v>
+      </c>
+      <c r="L69" s="19">
+        <v>3</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="N69" s="46"/>
+      <c r="O69" s="18">
+        <v>42.504322000000002</v>
+      </c>
+      <c r="P69" s="18">
+        <v>0.99031100000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C70" s="11">
+        <v>63</v>
+      </c>
+      <c r="D70" s="93">
+        <f>VLOOKUP(A70,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1958</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="F70" s="15">
+        <v>41.378306000000002</v>
+      </c>
+      <c r="G70" s="15">
+        <v>-6.3515829999999998</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="I70" s="11">
+        <v>2730</v>
+      </c>
+      <c r="J70" s="15">
+        <v>41.379297000000001</v>
+      </c>
+      <c r="K70" s="18">
+        <v>-6.3516560000000002</v>
+      </c>
+      <c r="L70" s="19">
+        <v>13.43</v>
+      </c>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="11">
+        <v>64</v>
+      </c>
+      <c r="D71" s="93">
+        <f>VLOOKUP(A71,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1968</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F71" s="15">
+        <v>46.85</v>
+      </c>
+      <c r="G71" s="15">
+        <v>9.0008330000000001</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I71" s="11">
+        <v>3311</v>
+      </c>
+      <c r="J71" s="15">
+        <v>46.845416999999998</v>
+      </c>
+      <c r="K71" s="18">
+        <v>9.0104170000000003</v>
+      </c>
+      <c r="L71" s="19">
+        <v>92</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="N71" s="11"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="11">
+        <v>65</v>
+      </c>
+      <c r="D72" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F72" s="15">
+        <v>44.059699999999999</v>
+      </c>
+      <c r="G72" s="15">
+        <v>2.77</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="I72" s="11">
+        <v>3438</v>
+      </c>
+      <c r="J72" s="15">
+        <v>44.092185000000001</v>
+      </c>
+      <c r="K72" s="18">
+        <v>2.7022810000000002</v>
+      </c>
+      <c r="L72" s="19">
+        <v>10.9</v>
+      </c>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="37">
+        <v>65</v>
+      </c>
+      <c r="D73" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="81" t="s">
+        <v>536</v>
+      </c>
+      <c r="I73" s="90">
+        <v>3436</v>
+      </c>
+      <c r="J73" s="40">
+        <v>44.199409000000003</v>
+      </c>
+      <c r="K73" s="43">
+        <v>2.7393529999999999</v>
+      </c>
+      <c r="L73" s="44">
+        <v>167</v>
+      </c>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B74" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="11">
+        <v>66</v>
+      </c>
+      <c r="D74" s="93">
+        <f>VLOOKUP(A74,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1976</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="F74" s="15">
+        <v>38.883951099999997</v>
+      </c>
+      <c r="G74" s="15">
+        <v>21.493796100000001</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="I74" s="11">
+        <v>4026</v>
+      </c>
+      <c r="J74" s="15">
+        <v>38.887233999999999</v>
+      </c>
+      <c r="K74" s="18">
+        <v>21.495304000000001</v>
+      </c>
+      <c r="L74" s="19">
+        <v>4750</v>
+      </c>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B75" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="11">
+        <v>67</v>
+      </c>
+      <c r="D75" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F75" s="15">
+        <v>59.444355000000002</v>
+      </c>
+      <c r="G75" s="15">
+        <v>8.038259</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="I75" s="79"/>
+      <c r="J75" s="15">
+        <v>59.609687000000001</v>
+      </c>
+      <c r="K75" s="18">
+        <v>7.8543219999999998</v>
+      </c>
+      <c r="L75" s="19">
+        <v>11.2</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="N75" s="11"/>
+      <c r="O75" s="18">
+        <v>59.441267000000003</v>
+      </c>
+      <c r="P75" s="18">
+        <v>8.0354530000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C76" s="11">
+        <v>68</v>
+      </c>
+      <c r="D76" s="93">
+        <f>VLOOKUP(A76,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1964</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="F76" s="15">
+        <v>41.301692000000003</v>
+      </c>
+      <c r="G76" s="15">
+        <v>-6.4697089999999999</v>
+      </c>
+      <c r="H76" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" s="11">
+        <v>2732</v>
+      </c>
+      <c r="J76" s="15">
+        <v>41.300930000000001</v>
+      </c>
+      <c r="K76" s="18">
+        <v>-6.4694010000000004</v>
+      </c>
+      <c r="L76" s="19">
+        <v>14.43</v>
+      </c>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C77" s="11">
+        <v>69</v>
+      </c>
+      <c r="D77" s="93">
+        <f>VLOOKUP(A77,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1960</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F77" s="15">
+        <v>46.291753</v>
+      </c>
+      <c r="G77" s="15">
+        <v>10.266454</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="I77" s="79"/>
+      <c r="J77" s="15">
+        <v>46.328836000000003</v>
+      </c>
+      <c r="K77" s="18">
+        <v>10.24729</v>
+      </c>
+      <c r="L77" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C78" s="11">
+        <v>70</v>
+      </c>
+      <c r="D78" s="93">
+        <f>VLOOKUP(A78,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1948</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F78" s="15">
+        <v>46.052714000000002</v>
+      </c>
+      <c r="G78" s="15">
+        <v>5.812862</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I78" s="11">
+        <v>3373</v>
+      </c>
+      <c r="J78" s="15">
+        <v>46.053750000000001</v>
+      </c>
+      <c r="K78" s="18">
+        <v>5.8129169999999997</v>
+      </c>
+      <c r="L78" s="19">
+        <v>56</v>
+      </c>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="11">
+        <v>71</v>
+      </c>
+      <c r="D79" s="93">
+        <f>VLOOKUP(A79,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1974</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="F79" s="15">
+        <v>56.8513187</v>
+      </c>
+      <c r="G79" s="15">
+        <v>24.272038899999998</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="I79" s="11">
+        <v>3735</v>
+      </c>
+      <c r="J79" s="15">
+        <v>56.852083</v>
+      </c>
+      <c r="K79" s="18">
+        <v>24.274583</v>
+      </c>
+      <c r="L79" s="19">
+        <v>340</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="N79" s="11"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="11">
+        <v>72</v>
+      </c>
+      <c r="D80" s="93">
+        <f>VLOOKUP(A80,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1965</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="F80" s="15">
+        <v>56.406388999999997</v>
+      </c>
+      <c r="G80" s="15">
+        <v>-5.1130560000000003</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="I80" s="79"/>
+      <c r="J80" s="15">
+        <v>56.407086999999997</v>
+      </c>
+      <c r="K80" s="18">
+        <v>-5.1127190000000002</v>
+      </c>
+      <c r="L80" s="19">
+        <v>10</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="N80" s="89">
+        <v>3053</v>
+      </c>
+      <c r="O80" s="18">
+        <v>56.380200000000002</v>
+      </c>
+      <c r="P80" s="18">
+        <v>-5.0737079999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="11">
+        <v>73</v>
+      </c>
+      <c r="D81" s="93">
+        <f>VLOOKUP(A81,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1964</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F81" s="15">
+        <v>47.034140999999998</v>
+      </c>
+      <c r="G81" s="15">
+        <v>10.748120999999999</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="I81" s="11">
+        <v>3309</v>
+      </c>
+      <c r="J81" s="15">
+        <v>46.955500999999998</v>
+      </c>
+      <c r="K81" s="18">
+        <v>10.740614000000001</v>
+      </c>
+      <c r="L81" s="19">
+        <v>140</v>
+      </c>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="11">
+        <v>74</v>
+      </c>
+      <c r="D82" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F82" s="15">
+        <v>46.183329999999998</v>
+      </c>
+      <c r="G82" s="15">
+        <v>7.3</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I82" s="11">
+        <v>3371</v>
+      </c>
+      <c r="J82" s="15">
+        <v>46.080326999999997</v>
+      </c>
+      <c r="K82" s="18">
+        <v>7.4032600000000004</v>
+      </c>
+      <c r="L82" s="19">
+        <v>400</v>
+      </c>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="11">
+        <v>75</v>
+      </c>
+      <c r="D83" s="93">
+        <f>VLOOKUP(A83,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1997</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="F83" s="15">
+        <v>41.354444000000001</v>
+      </c>
+      <c r="G83" s="15">
+        <v>24.366944</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="I83" s="11">
+        <v>3991</v>
+      </c>
+      <c r="J83" s="15">
+        <v>41.353996000000002</v>
+      </c>
+      <c r="K83" s="18">
+        <v>24.366377</v>
+      </c>
+      <c r="L83" s="19">
+        <v>565</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="N83" s="11">
+        <v>3992</v>
+      </c>
+      <c r="O83" s="18">
+        <v>41.336469000000001</v>
+      </c>
+      <c r="P83" s="18">
+        <v>24.462064999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="11">
+        <v>76</v>
+      </c>
+      <c r="D84" s="93">
+        <f>VLOOKUP(A84,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1960</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F84" s="15">
+        <v>44.471643999999998</v>
+      </c>
+      <c r="G84" s="15">
+        <v>6.2706179999999998</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="I84" s="11">
+        <v>3433</v>
+      </c>
+      <c r="J84" s="15">
+        <v>44.471885</v>
+      </c>
+      <c r="K84" s="18">
+        <v>6.2706480000000004</v>
+      </c>
+      <c r="L84" s="19">
+        <v>1270</v>
+      </c>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B85" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="11">
+        <v>77</v>
+      </c>
+      <c r="D85" s="93">
+        <f>VLOOKUP(A85,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F85" s="15">
+        <v>61.305857000000003</v>
+      </c>
+      <c r="G85" s="15">
+        <v>7.7911260000000002</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="I85" s="79"/>
+      <c r="J85" s="15">
+        <v>61.298879999999997</v>
+      </c>
+      <c r="K85" s="18">
+        <v>8.2096269999999993</v>
+      </c>
+      <c r="L85" s="19">
+        <v>313</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="N85" s="11"/>
+      <c r="O85" s="18">
+        <v>61.289566000000001</v>
+      </c>
+      <c r="P85" s="18">
+        <v>7.7495750000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="11">
+        <v>78</v>
+      </c>
+      <c r="D86" s="93">
+        <f>VLOOKUP(A86,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1977</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F86" s="15">
+        <v>36.908369</v>
+      </c>
+      <c r="G86" s="15">
+        <v>-4.7628919999999999</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="I86" s="79"/>
+      <c r="J86" s="15">
+        <v>36.903770000000002</v>
+      </c>
+      <c r="K86" s="18">
+        <v>-4.7780940000000003</v>
+      </c>
+      <c r="L86" s="19">
+        <v>4</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="N86" s="11"/>
+      <c r="O86" s="18">
+        <v>36.907857999999997</v>
+      </c>
+      <c r="P86" s="18">
+        <v>-4.7625799999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C87" s="11">
+        <v>79</v>
+      </c>
+      <c r="D87" s="93">
+        <f>VLOOKUP(A87,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1960</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="F87" s="15">
+        <v>41.489750000000001</v>
+      </c>
+      <c r="G87" s="15">
+        <v>-6.2639189999999996</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="I87" s="11">
+        <v>2727</v>
+      </c>
+      <c r="J87" s="15">
+        <v>41.489981</v>
+      </c>
+      <c r="K87" s="18">
+        <v>-6.2642439999999997</v>
+      </c>
+      <c r="L87" s="19">
+        <v>6.66</v>
+      </c>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B88" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="11">
+        <v>80</v>
+      </c>
+      <c r="D88" s="93">
+        <f>VLOOKUP(A88,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1961</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="F88" s="15">
+        <v>49.6068444</v>
+      </c>
+      <c r="G88" s="15">
+        <v>14.181225299999999</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="I88" s="11">
+        <v>3263</v>
+      </c>
+      <c r="J88" s="15">
+        <v>49.6068444</v>
+      </c>
+      <c r="K88" s="18">
+        <v>14.181225299999999</v>
+      </c>
+      <c r="L88" s="19">
+        <v>703.8</v>
+      </c>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="11">
+        <v>81</v>
+      </c>
+      <c r="D89" s="93">
+        <f>VLOOKUP(A89,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1963</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F89" s="15">
+        <v>44.961181000000003</v>
+      </c>
+      <c r="G89" s="15">
+        <v>5.6887509999999999</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="I89" s="11">
+        <v>3421</v>
+      </c>
+      <c r="J89" s="15">
+        <v>44.961091000000003</v>
+      </c>
+      <c r="K89" s="18">
+        <v>5.6890539999999996</v>
+      </c>
+      <c r="L89" s="19">
+        <v>275</v>
+      </c>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="11">
+        <v>82</v>
+      </c>
+      <c r="D90" s="93">
+        <f>VLOOKUP(A90,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1988</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F90" s="15">
+        <v>47.146110999999998</v>
+      </c>
+      <c r="G90" s="15">
+        <v>11.967222</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="I90" s="11">
+        <v>3302</v>
+      </c>
+      <c r="J90" s="15">
+        <v>47.121366000000002</v>
+      </c>
+      <c r="K90" s="18">
+        <v>12.061754000000001</v>
+      </c>
+      <c r="L90" s="19">
+        <v>68.7</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="N90" s="11"/>
+      <c r="O90" s="18">
+        <v>47.121465999999998</v>
+      </c>
+      <c r="P90" s="18">
+        <v>11.867184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="11">
+        <v>83</v>
+      </c>
+      <c r="D91" s="93">
+        <f>VLOOKUP(A91,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1968</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F91" s="15">
+        <v>45.21293</v>
+      </c>
+      <c r="G91" s="15">
+        <v>6.7152599999999998</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="I91" s="11">
+        <v>3411</v>
+      </c>
+      <c r="J91" s="15">
+        <v>45.228749999999998</v>
+      </c>
+      <c r="K91" s="18">
+        <v>6.94625</v>
+      </c>
+      <c r="L91" s="19">
+        <v>332.2</v>
+      </c>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="11">
+        <v>84</v>
+      </c>
+      <c r="D92" s="93">
+        <f>VLOOKUP(A92,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1964</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="F92" s="15">
+        <v>47.565607</v>
+      </c>
+      <c r="G92" s="15">
+        <v>7.9536300000000004</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="I92" s="79"/>
+      <c r="J92" s="15">
+        <v>47.580925999999998</v>
+      </c>
+      <c r="K92" s="18">
+        <v>7.9596809999999998</v>
+      </c>
+      <c r="L92" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="N92" s="11"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="11">
+        <v>85</v>
+      </c>
+      <c r="D93" s="93">
+        <f>VLOOKUP(A93,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1963</v>
+      </c>
+      <c r="E93" s="76" t="s">
+        <v>779</v>
+      </c>
+      <c r="F93" s="15">
+        <v>52.980832999999997</v>
+      </c>
+      <c r="G93" s="15">
+        <v>-3.9688889999999999</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="I93" s="79"/>
+      <c r="J93" s="15">
+        <v>52.980939999999997</v>
+      </c>
+      <c r="K93" s="18">
+        <v>-3.9899710000000002</v>
+      </c>
+      <c r="L93" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="N93" s="79"/>
+      <c r="O93" s="18">
+        <v>52.981065999999998</v>
+      </c>
+      <c r="P93" s="18">
+        <v>-3.9664959999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="11">
+        <v>86</v>
+      </c>
+      <c r="D94" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F94" s="15">
+        <v>46.067701999999997</v>
+      </c>
+      <c r="G94" s="15">
+        <v>10.982813999999999</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="I94" s="79"/>
+      <c r="J94" s="15">
+        <v>46.123626000000002</v>
+      </c>
+      <c r="K94" s="18">
+        <v>10.957356000000001</v>
+      </c>
+      <c r="L94" s="19">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="N94" s="11"/>
+      <c r="O94" s="18">
+        <v>46.066760000000002</v>
+      </c>
+      <c r="P94" s="18">
+        <v>10.983506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C95" s="11">
+        <v>87</v>
+      </c>
+      <c r="D95" s="93">
+        <f>VLOOKUP(A95,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1952</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F95" s="15">
+        <v>44.303735000000003</v>
+      </c>
+      <c r="G95" s="15">
+        <v>4.7424249999999999</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="I95" s="79"/>
+      <c r="J95" s="15">
+        <v>44.303735000000003</v>
+      </c>
+      <c r="K95" s="18">
+        <v>4.7424249999999999</v>
+      </c>
+      <c r="L95" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="11">
+        <v>88</v>
+      </c>
+      <c r="D96" s="93">
+        <f>VLOOKUP(A96,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1980</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F96" s="15">
+        <v>46.565359106343998</v>
+      </c>
+      <c r="G96" s="15">
+        <v>8.3277561798094997</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="I96" s="11">
+        <v>3330</v>
+      </c>
+      <c r="J96" s="15">
+        <v>46.547083000000001</v>
+      </c>
+      <c r="K96" s="18">
+        <v>8.2712500000000002</v>
+      </c>
+      <c r="L96" s="19">
+        <v>61</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="N96" s="11">
+        <v>3323</v>
+      </c>
+      <c r="O96" s="18">
+        <v>46.547083000000001</v>
+      </c>
+      <c r="P96" s="18">
+        <v>8.2712500000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C97" s="11">
+        <v>89</v>
+      </c>
+      <c r="D97" s="93">
+        <f>VLOOKUP(A97,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1969</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F97" s="15">
+        <v>46.332099999999997</v>
+      </c>
+      <c r="G97" s="15">
+        <v>8.0119600000000002</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="I97" s="79"/>
+      <c r="J97" s="15">
+        <v>46.371958999999997</v>
+      </c>
+      <c r="K97" s="18">
+        <v>8.0022179999999992</v>
+      </c>
+      <c r="L97" s="19">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="11">
+        <v>90</v>
+      </c>
+      <c r="D98" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F98" s="15">
+        <v>45.625267999999998</v>
+      </c>
+      <c r="G98" s="15">
+        <v>6.791353</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="I98" s="11">
+        <v>3398</v>
+      </c>
+      <c r="J98" s="15">
+        <v>45.493203000000001</v>
+      </c>
+      <c r="K98" s="18">
+        <v>6.9330059999999998</v>
+      </c>
+      <c r="L98" s="19">
+        <v>230</v>
+      </c>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" s="11">
+        <v>91</v>
+      </c>
+      <c r="D99" s="93">
+        <f>VLOOKUP(A99,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1966</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F99" s="15">
+        <v>41.368983</v>
+      </c>
+      <c r="G99" s="15">
+        <v>0.27338099999999999</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="I99" s="11">
+        <v>3503</v>
+      </c>
+      <c r="J99" s="15">
+        <v>41.369221000000003</v>
+      </c>
+      <c r="K99" s="18">
+        <v>0.27279599999999998</v>
+      </c>
+      <c r="L99" s="19">
+        <v>1533.8</v>
+      </c>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B100" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" s="11">
+        <v>92</v>
+      </c>
+      <c r="D100" s="93">
+        <f>VLOOKUP(A100,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1984</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="F100" s="15">
+        <v>46.788899999999998</v>
+      </c>
+      <c r="G100" s="15">
+        <v>22.567162499999998</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="I100" s="11">
+        <v>3891</v>
+      </c>
+      <c r="J100" s="15">
+        <v>44.305433000000001</v>
+      </c>
+      <c r="K100" s="18">
+        <v>22.563907</v>
+      </c>
+      <c r="L100" s="19">
+        <v>868</v>
+      </c>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B101" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="11">
+        <v>93</v>
+      </c>
+      <c r="D101" s="93">
+        <f>VLOOKUP(A101,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1964</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F101" s="15">
+        <v>59.617114999999998</v>
+      </c>
+      <c r="G101" s="15">
+        <v>7.8564309999999997</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="I101" s="79"/>
+      <c r="J101" s="15">
+        <v>59.70317</v>
+      </c>
+      <c r="K101" s="18">
+        <v>7.9030300000000002</v>
+      </c>
+      <c r="L101" s="19">
+        <v>2360</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="N101" s="11"/>
+      <c r="O101" s="18">
+        <v>59.609687000000001</v>
+      </c>
+      <c r="P101" s="18">
+        <v>7.8543219999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="47" t="s">
+        <v>707</v>
+      </c>
+      <c r="B102" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="11">
+        <v>94</v>
+      </c>
+      <c r="D102" s="93">
+        <f>VLOOKUP(A102,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1954</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="F102" s="15">
+        <v>63.539774000000001</v>
+      </c>
+      <c r="G102" s="15">
+        <v>16.761382999999999</v>
+      </c>
+      <c r="H102" s="47" t="s">
+        <v>709</v>
+      </c>
+      <c r="I102" s="79"/>
+      <c r="J102" s="15">
+        <v>63.563923000000003</v>
+      </c>
+      <c r="K102" s="18">
+        <v>16.650549999999999</v>
+      </c>
+      <c r="L102" s="19">
+        <v>0</v>
+      </c>
+      <c r="M102" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="N102" s="11"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="73" t="s">
+        <v>773</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" s="11">
+        <v>95</v>
+      </c>
+      <c r="D103" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F103" s="15">
+        <v>46.033152000000001</v>
+      </c>
+      <c r="G103" s="15">
+        <v>7.3079099999999997</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I103" s="11">
+        <v>3371</v>
+      </c>
+      <c r="J103" s="15">
+        <v>46.080326999999997</v>
+      </c>
+      <c r="K103" s="18">
+        <v>7.4032600000000004</v>
+      </c>
+      <c r="L103" s="19">
+        <v>400</v>
+      </c>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" s="11">
+        <v>96</v>
+      </c>
+      <c r="D104" s="93">
+        <f>VLOOKUP(A104,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1981</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="F104" s="15">
+        <v>47.209373999999997</v>
+      </c>
+      <c r="G104" s="15">
+        <v>11.005618</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="I104" s="11">
+        <v>3295</v>
+      </c>
+      <c r="J104" s="15">
+        <v>47.197916999999997</v>
+      </c>
+      <c r="K104" s="18">
+        <v>11.02125</v>
+      </c>
+      <c r="L104" s="19">
+        <v>60</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="N104" s="11"/>
+      <c r="O104" s="18">
+        <v>47.212035</v>
+      </c>
+      <c r="P104" s="18">
+        <v>11.000964</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" s="11">
+        <v>97</v>
+      </c>
+      <c r="D105" s="93">
+        <f>VLOOKUP(A105,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1975</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F105" s="15">
+        <v>60.883144999999999</v>
+      </c>
+      <c r="G105" s="15">
+        <v>7.2483139999999997</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="I105" s="11">
+        <v>3107</v>
+      </c>
+      <c r="J105" s="15">
+        <v>60.805292999999999</v>
+      </c>
+      <c r="K105" s="18">
+        <v>7.7497199999999999</v>
+      </c>
+      <c r="L105" s="19">
+        <v>448</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="N105" s="11"/>
+      <c r="O105" s="18">
+        <v>60.790472000000001</v>
+      </c>
+      <c r="P105" s="18">
+        <v>7.5625</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="B106" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="11">
+        <v>98</v>
+      </c>
+      <c r="D106" s="93">
+        <f>VLOOKUP(A106,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1940</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="F106" s="15">
+        <v>56.740499999999997</v>
+      </c>
+      <c r="G106" s="15">
+        <v>24.711300000000001</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="I106" s="11">
+        <v>3736</v>
+      </c>
+      <c r="J106" s="15">
+        <v>56.737166000000002</v>
+      </c>
+      <c r="K106" s="18">
+        <v>24.713374000000002</v>
+      </c>
+      <c r="L106" s="19">
+        <v>157</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="N106" s="11"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C107" s="11">
+        <v>99</v>
+      </c>
+      <c r="D107" s="93">
+        <f>VLOOKUP(A107,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1969</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="F107" s="15">
+        <v>41.242384000000001</v>
+      </c>
+      <c r="G107" s="15">
+        <v>0.43075999999999998</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="I107" s="11">
+        <v>3505</v>
+      </c>
+      <c r="J107" s="15">
+        <v>41.243912000000002</v>
+      </c>
+      <c r="K107" s="18">
+        <v>0.43240800000000001</v>
+      </c>
+      <c r="L107" s="19">
+        <v>206.9</v>
+      </c>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="11">
+        <v>100</v>
+      </c>
+      <c r="D108" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F108" s="15">
+        <v>46.702100000000002</v>
+      </c>
+      <c r="G108" s="15">
+        <v>8.2353000000000005</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="I108" s="11">
+        <v>3319</v>
+      </c>
+      <c r="J108" s="15">
+        <v>46.612082999999998</v>
+      </c>
+      <c r="K108" s="18">
+        <v>8.3220829999999992</v>
+      </c>
+      <c r="L108" s="19">
+        <v>14</v>
+      </c>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="36" t="s">
+        <v>775</v>
+      </c>
+      <c r="B109" s="38"/>
+      <c r="C109" s="37">
+        <v>100</v>
+      </c>
+      <c r="D109" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="81" t="s">
+        <v>736</v>
+      </c>
+      <c r="I109" s="37">
+        <v>3320</v>
+      </c>
+      <c r="J109" s="40">
+        <v>46.581969999999998</v>
+      </c>
+      <c r="K109" s="43">
+        <v>8.3313690000000005</v>
+      </c>
+      <c r="L109" s="44">
+        <v>27</v>
+      </c>
+      <c r="M109" s="37"/>
+      <c r="N109" s="37"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="43"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="36" t="s">
+        <v>775</v>
+      </c>
+      <c r="B110" s="38"/>
+      <c r="C110" s="37">
+        <v>100</v>
+      </c>
+      <c r="D110" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="81" t="s">
+        <v>675</v>
+      </c>
+      <c r="I110" s="37">
+        <v>3323</v>
+      </c>
+      <c r="J110" s="40">
+        <v>46.547083000000001</v>
+      </c>
+      <c r="K110" s="43">
+        <v>8.2712500000000002</v>
+      </c>
+      <c r="L110" s="44">
+        <v>95</v>
+      </c>
+      <c r="M110" s="37"/>
+      <c r="N110" s="37"/>
+      <c r="O110" s="43"/>
+      <c r="P110" s="43"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="11">
+        <v>101</v>
+      </c>
+      <c r="D111" s="93">
+        <f>VLOOKUP(A111,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1956</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F111" s="15">
+        <v>46.485100000000003</v>
+      </c>
+      <c r="G111" s="15">
+        <v>10.353351999999999</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="I111" s="11">
+        <v>3312</v>
+      </c>
+      <c r="J111" s="15">
+        <v>46.517659999999999</v>
+      </c>
+      <c r="K111" s="18">
+        <v>10.31837</v>
+      </c>
+      <c r="L111" s="19">
+        <v>187</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="N111" s="11"/>
+      <c r="O111" s="18">
+        <v>46.328836000000003</v>
+      </c>
+      <c r="P111" s="18">
+        <v>10.24729</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="B112" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="11">
+        <v>102</v>
+      </c>
+      <c r="D112" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F112" s="15">
+        <v>60.874955999999997</v>
+      </c>
+      <c r="G112" s="15">
+        <v>7.3222529999999999</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="I112" s="79"/>
+      <c r="J112" s="15">
+        <v>60.704036000000002</v>
+      </c>
+      <c r="K112" s="18">
+        <v>7.4916669999999996</v>
+      </c>
+      <c r="L112" s="19">
+        <v>0.108</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="N112" s="11">
+        <v>3104</v>
+      </c>
+      <c r="O112" s="18">
+        <v>60.817414999999997</v>
+      </c>
+      <c r="P112" s="18">
+        <v>7.2543680000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="B113" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="37">
+        <v>102</v>
+      </c>
+      <c r="D113" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="81" t="s">
+        <v>748</v>
+      </c>
+      <c r="I113" s="37">
+        <v>3167</v>
+      </c>
+      <c r="J113" s="40">
+        <v>59.155174000000002</v>
+      </c>
+      <c r="K113" s="43">
+        <v>6.8926600000000002</v>
+      </c>
+      <c r="L113" s="44">
+        <v>3.734</v>
+      </c>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
+      <c r="O113" s="43"/>
+      <c r="P113" s="43"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="37">
+        <v>102</v>
+      </c>
+      <c r="D114" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="I114" s="37">
+        <v>3111</v>
+      </c>
+      <c r="J114" s="40">
+        <v>60.552734999999998</v>
+      </c>
+      <c r="K114" s="43">
+        <v>7.126417</v>
+      </c>
+      <c r="L114" s="44">
+        <v>14.188499999999999</v>
+      </c>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="43"/>
+      <c r="P114" s="43"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="37">
+        <v>102</v>
+      </c>
+      <c r="D115" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="81" t="s">
+        <v>752</v>
+      </c>
+      <c r="I115" s="79"/>
+      <c r="J115" s="40">
+        <v>60.793399999999998</v>
+      </c>
+      <c r="K115" s="43">
+        <v>7.4774000000000003</v>
+      </c>
+      <c r="L115" s="44">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="M115" s="37"/>
+      <c r="N115" s="37"/>
+      <c r="O115" s="43"/>
+      <c r="P115" s="43"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="B116" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" s="37">
+        <v>102</v>
+      </c>
+      <c r="D116" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="81" t="s">
+        <v>754</v>
+      </c>
+      <c r="I116" s="79"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="37"/>
+      <c r="O116" s="43"/>
+      <c r="P116" s="43"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="37">
+        <v>102</v>
+      </c>
+      <c r="D117" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="81" t="s">
+        <v>755</v>
+      </c>
+      <c r="I117" s="79"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="43"/>
+      <c r="P117" s="43"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="37">
+        <v>102</v>
+      </c>
+      <c r="D118" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="81" t="s">
+        <v>721</v>
+      </c>
+      <c r="I118" s="79"/>
+      <c r="J118" s="40">
+        <v>60.790472000000001</v>
+      </c>
+      <c r="K118" s="43">
+        <v>7.5625</v>
+      </c>
+      <c r="L118" s="44">
+        <v>10</v>
+      </c>
+      <c r="M118" s="37"/>
+      <c r="N118" s="37"/>
+      <c r="O118" s="43"/>
+      <c r="P118" s="43"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B119" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="11">
+        <v>103</v>
+      </c>
+      <c r="D119" s="93">
+        <f>VLOOKUP(A119,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1980</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="F119" s="15">
+        <v>58.616660000000003</v>
+      </c>
+      <c r="G119" s="15">
+        <v>6.0833329999999997</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="I119" s="79"/>
+      <c r="J119" s="15">
+        <v>59.496032999999997</v>
+      </c>
+      <c r="K119" s="18">
+        <v>6.5395159999999999</v>
+      </c>
+      <c r="L119" s="19">
+        <v>44</v>
+      </c>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" s="11">
+        <v>104</v>
+      </c>
+      <c r="D120" s="93">
+        <f>VLOOKUP(A120,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1949</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F120" s="15">
+        <v>42.511240000000001</v>
+      </c>
+      <c r="G120" s="15">
+        <v>13.410589999999999</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="I120" s="89">
+        <v>3477</v>
+      </c>
+      <c r="J120" s="15">
+        <v>42.532933999999997</v>
+      </c>
+      <c r="K120" s="18">
+        <v>13.387402</v>
+      </c>
+      <c r="L120" s="19">
+        <v>217</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="N120" s="11"/>
+      <c r="O120" s="18">
+        <v>42.507601999999999</v>
+      </c>
+      <c r="P120" s="18">
+        <v>13.405393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" s="11">
+        <v>105</v>
+      </c>
+      <c r="D121" s="93">
+        <f>VLOOKUP(A121,Generators!$A$1:$BA$275,26,FALSE)</f>
+        <v>1982</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="F121" s="15">
+        <v>44.224722</v>
+      </c>
+      <c r="G121" s="15">
+        <v>7.3861109999999996</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="I121" s="79"/>
+      <c r="J121" s="15">
+        <v>44.176062000000002</v>
+      </c>
+      <c r="K121" s="18">
+        <v>7.3428610000000001</v>
+      </c>
+      <c r="L121" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N121" s="11"/>
+      <c r="O121" s="18">
+        <v>44.222800999999997</v>
+      </c>
+      <c r="P121" s="18">
+        <v>7.3893139999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" s="11">
+        <v>106</v>
+      </c>
+      <c r="D122" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F122" s="15">
+        <v>45.503785000000001</v>
+      </c>
+      <c r="G122" s="15">
+        <v>6.9256219999999997</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="I122" s="11">
+        <v>3398</v>
+      </c>
+      <c r="J122" s="15">
+        <v>45.493203000000001</v>
+      </c>
+      <c r="K122" s="18">
+        <v>6.9330059999999998</v>
+      </c>
+      <c r="L122" s="19">
+        <v>230</v>
+      </c>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" tooltip="Sestrimo (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Sestrimo&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="A41" r:id="rId2" tooltip="Loučná nad Desnou" display="https://en.wikipedia.org/wiki/Lou%C4%8Dn%C3%A1_nad_Desnou"/>
+    <hyperlink ref="A67" r:id="rId3" tooltip="Kramolín (Třebíč District)" display="https://en.wikipedia.org/wiki/Kramol%C3%ADn_(T%C5%99eb%C3%AD%C4%8D_District)"/>
+    <hyperlink ref="A88" r:id="rId4" tooltip="Solenice" display="https://en.wikipedia.org/wiki/Solenice"/>
+    <hyperlink ref="A16" r:id="rId5" tooltip="Maccagno" display="https://en.wikipedia.org/wiki/Maccagno"/>
+    <hyperlink ref="A25" r:id="rId6" tooltip="Aizkraukle" display="https://en.wikipedia.org/wiki/Aizkraukle"/>
+    <hyperlink ref="A79" r:id="rId7" tooltip="Salaspils" display="https://en.wikipedia.org/wiki/Salaspils"/>
+    <hyperlink ref="A39" r:id="rId8" tooltip="Viana do Castelo District" display="https://en.wikipedia.org/wiki/Viana_do_Castelo_District"/>
+    <hyperlink ref="A76" r:id="rId9" tooltip="Bragança District" display="https://en.wikipedia.org/wiki/Bragan%C3%A7a_District"/>
+    <hyperlink ref="A33" r:id="rId10" tooltip="Carinthia (state)" display="https://en.wikipedia.org/wiki/Carinthia_(state)"/>
+    <hyperlink ref="A81" r:id="rId11" tooltip="Kaunertal" display="https://en.wikipedia.org/wiki/Kaunertal"/>
+    <hyperlink ref="A80" r:id="rId12" tooltip="Argyll and Bute" display="https://en.wikipedia.org/wiki/Argyll_and_Bute"/>
+    <hyperlink ref="A32" r:id="rId13" tooltip="Carinthia (state)" display="https://en.wikipedia.org/wiki/Carinthia_(state)"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
+</worksheet>
 </file>
--- a/data/table_from_will.xlsx
+++ b/data/table_from_will.xlsx
@@ -29310,7 +29310,7 @@
       <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
